--- a/052c doc/woC_model_version/feature通道平均值.xlsx
+++ b/052c doc/woC_model_version/feature通道平均值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\woC_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D80854-4B0E-43E0-B3B2-D98CE92341A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C451E0-B140-4C8D-B1D1-1478E30EA224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+              <a:t>l1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+              <a:t> out</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2450,6 +2480,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>l4 out</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4794,6 +4850,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+              <a:t>l8 out</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12921,7 +13003,7 @@
   <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13258,7 +13340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFEDDF7-B930-4748-8155-7F724EFDDE8E}">
   <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A199" workbookViewId="0">
       <selection activeCell="R174" sqref="R174"/>
     </sheetView>
   </sheetViews>
@@ -15230,7 +15312,7 @@
   <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17537,7 +17619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBAEB6F-E571-43CA-BDAF-5E54F4871B8B}">
   <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
